--- a/CASUAL/LA ONT/ESTIGOY, BEVERLYN ANN P..xlsx
+++ b/CASUAL/LA ONT/ESTIGOY, BEVERLYN ANN P..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
   <si>
     <t>PERIOD</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>UT(0-1-0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UT(0-1-0)</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1235,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1275,7 +1278,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1342,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,7 +1402,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,7 +1468,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1528,7 +1531,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1629,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,7 +1688,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1750,7 +1753,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1796,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1868,7 +1871,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2054,7 +2057,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2123,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2181,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2247,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2300,7 +2303,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2378,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2418,7 +2421,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,7 +2487,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2540,7 +2543,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2641,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2701,7 +2704,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3149,7 +3152,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3975" topLeftCell="A111" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
+      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3310,7 +3313,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>60.971000000000004</v>
+        <v>60.846000000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5651,11 +5654,15 @@
       <c r="A119" s="40">
         <v>44682</v>
       </c>
-      <c r="B119" s="20"/>
+      <c r="B119" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="C119" s="13">
         <v>1.25</v>
       </c>
-      <c r="D119" s="39"/>
+      <c r="D119" s="39">
+        <v>0.125</v>
+      </c>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
       <c r="G119" s="13">

--- a/CASUAL/LA ONT/ESTIGOY, BEVERLYN ANN P..xlsx
+++ b/CASUAL/LA ONT/ESTIGOY, BEVERLYN ANN P..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="116">
   <si>
     <t>PERIOD</t>
   </si>
@@ -363,9 +363,6 @@
     <t>2024</t>
   </si>
   <si>
-    <t>fl(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-6-2)</t>
   </si>
   <si>
@@ -373,6 +370,18 @@
   </si>
   <si>
     <t xml:space="preserve"> UT(0-1-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-59)</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-45)</t>
+  </si>
+  <si>
+    <t>UT(0-0-27)</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1244,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1278,7 +1287,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1351,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1402,7 +1411,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,7 +1477,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1531,7 +1540,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1629,7 +1638,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1697,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1753,7 +1762,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1796,7 +1805,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1871,7 +1880,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2057,7 +2066,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,7 +2132,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2181,7 +2190,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2256,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2312,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2378,7 +2387,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2421,7 +2430,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,7 +2496,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2543,7 +2552,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2641,7 +2650,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2704,7 +2713,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2770,7 +2779,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K163" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K165" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3148,11 +3157,11 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K163"/>
+  <dimension ref="A2:K165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3975" topLeftCell="A111" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
+      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3313,7 +3322,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>60.846000000000004</v>
+        <v>60.572999999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5655,7 +5664,7 @@
         <v>44682</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C119" s="13">
         <v>1.25</v>
@@ -5679,7 +5688,7 @@
         <v>44713</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C120" s="13">
         <v>1.25</v>
@@ -5703,7 +5712,7 @@
         <v>44743</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C121" s="13">
         <v>1.25</v>
@@ -5752,11 +5761,15 @@
       <c r="A123" s="40">
         <v>44805</v>
       </c>
-      <c r="B123" s="20"/>
+      <c r="B123" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="C123" s="13">
         <v>1.25</v>
       </c>
-      <c r="D123" s="39"/>
+      <c r="D123" s="39">
+        <v>5.6000000000000015E-2</v>
+      </c>
       <c r="E123" s="9"/>
       <c r="F123" s="20"/>
       <c r="G123" s="13">
@@ -5815,23 +5828,19 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C126" s="13">
-        <v>1.25</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C126" s="13"/>
       <c r="D126" s="39">
-        <v>1</v>
+        <v>9.4E-2</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="20"/>
-      <c r="G126" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G126" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H126" s="39"/>
       <c r="I126" s="9"/>
@@ -5839,17 +5848,23 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="B127" s="20"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="39"/>
+      <c r="A127" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C127" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D127" s="39">
+        <v>1</v>
+      </c>
       <c r="E127" s="9"/>
       <c r="F127" s="20"/>
-      <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G127" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H127" s="39"/>
       <c r="I127" s="9"/>
@@ -5857,45 +5872,37 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="40">
-        <v>44927</v>
-      </c>
+      <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C128" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D128" s="39"/>
+        <v>112</v>
+      </c>
+      <c r="C128" s="13"/>
+      <c r="D128" s="39">
+        <v>0.12300000000000001</v>
+      </c>
       <c r="E128" s="9"/>
       <c r="F128" s="20"/>
-      <c r="G128" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H128" s="39">
-        <v>1</v>
-      </c>
+      <c r="G128" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H128" s="39"/>
       <c r="I128" s="9"/>
       <c r="J128" s="11"/>
-      <c r="K128" s="48">
-        <v>44949</v>
-      </c>
+      <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="40">
-        <v>44958</v>
+      <c r="A129" s="47" t="s">
+        <v>99</v>
       </c>
       <c r="B129" s="20"/>
-      <c r="C129" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C129" s="13"/>
       <c r="D129" s="39"/>
       <c r="E129" s="9"/>
       <c r="F129" s="20"/>
-      <c r="G129" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G129" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H129" s="39"/>
       <c r="I129" s="9"/>
@@ -5904,9 +5911,11 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B130" s="20"/>
+        <v>44927</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C130" s="13">
         <v>1.25</v>
       </c>
@@ -5917,18 +5926,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H130" s="39"/>
+      <c r="H130" s="39">
+        <v>1</v>
+      </c>
       <c r="I130" s="9"/>
       <c r="J130" s="11"/>
-      <c r="K130" s="20"/>
+      <c r="K130" s="48">
+        <v>44949</v>
+      </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B131" s="20" t="s">
-        <v>77</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B131" s="20"/>
       <c r="C131" s="13">
         <v>1.25</v>
       </c>
@@ -5942,17 +5953,13 @@
       <c r="H131" s="39"/>
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
-      <c r="K131" s="48">
-        <v>45019</v>
-      </c>
+      <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B132" s="20" t="s">
-        <v>77</v>
-      </c>
+        <v>44986</v>
+      </c>
+      <c r="B132" s="20"/>
       <c r="C132" s="13">
         <v>1.25</v>
       </c>
@@ -5966,37 +5973,39 @@
       <c r="H132" s="39"/>
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
-      <c r="K132" s="48">
-        <v>45064</v>
-      </c>
+      <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
+      <c r="A133" s="40">
+        <v>45017</v>
+      </c>
       <c r="B133" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C133" s="13"/>
-      <c r="D133" s="39">
-        <v>2</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C133" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D133" s="39"/>
       <c r="E133" s="9"/>
       <c r="F133" s="20"/>
-      <c r="G133" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G133" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H133" s="39"/>
       <c r="I133" s="9"/>
       <c r="J133" s="11"/>
-      <c r="K133" s="48" t="s">
-        <v>103</v>
+      <c r="K133" s="48">
+        <v>45019</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B134" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C134" s="13">
         <v>1.25</v>
       </c>
@@ -6010,35 +6019,37 @@
       <c r="H134" s="39"/>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
-      <c r="K134" s="20"/>
+      <c r="K134" s="48">
+        <v>45064</v>
+      </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B135" s="20"/>
-      <c r="C135" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D135" s="39"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39">
+        <v>2</v>
+      </c>
       <c r="E135" s="9"/>
       <c r="F135" s="20"/>
-      <c r="G135" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H135" s="39"/>
       <c r="I135" s="9"/>
       <c r="J135" s="11"/>
-      <c r="K135" s="20"/>
+      <c r="K135" s="48" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B136" s="20" t="s">
-        <v>50</v>
-      </c>
+        <v>45078</v>
+      </c>
+      <c r="B136" s="20"/>
       <c r="C136" s="13">
         <v>1.25</v>
       </c>
@@ -6049,18 +6060,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H136" s="39">
-        <v>1</v>
-      </c>
+      <c r="H136" s="39"/>
       <c r="I136" s="9"/>
       <c r="J136" s="11"/>
-      <c r="K136" s="48">
-        <v>45168</v>
-      </c>
+      <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13">
@@ -6080,37 +6087,35 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B138" s="15" t="s">
-        <v>104</v>
+        <v>45139</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="C138" s="13">
         <v>1.25</v>
       </c>
-      <c r="D138" s="42">
-        <v>2</v>
-      </c>
+      <c r="D138" s="39"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H138" s="42"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H138" s="39">
+        <v>1</v>
+      </c>
       <c r="I138" s="9"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="15" t="s">
-        <v>105</v>
+      <c r="J138" s="11"/>
+      <c r="K138" s="48">
+        <v>45168</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B139" s="20" t="s">
-        <v>69</v>
-      </c>
+        <v>45170</v>
+      </c>
+      <c r="B139" s="20"/>
       <c r="C139" s="13">
         <v>1.25</v>
       </c>
@@ -6121,68 +6126,74 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H139" s="39">
-        <v>3</v>
-      </c>
+      <c r="H139" s="39"/>
       <c r="I139" s="9"/>
       <c r="J139" s="11"/>
-      <c r="K139" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="K139" s="20"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B140" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C140" s="13"/>
-      <c r="D140" s="39">
-        <v>4</v>
+        <v>45200</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C140" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D140" s="42">
+        <v>2</v>
       </c>
       <c r="E140" s="9"/>
-      <c r="F140" s="20"/>
-      <c r="G140" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H140" s="39"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H140" s="42"/>
       <c r="I140" s="9"/>
-      <c r="J140" s="11"/>
-      <c r="K140" s="20" t="s">
-        <v>107</v>
+      <c r="J140" s="12"/>
+      <c r="K140" s="15" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="40"/>
+      <c r="A141" s="40">
+        <v>45231</v>
+      </c>
       <c r="B141" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C141" s="13"/>
-      <c r="D141" s="39">
-        <v>1</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C141" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D141" s="39"/>
       <c r="E141" s="9"/>
       <c r="F141" s="20"/>
-      <c r="G141" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H141" s="39"/>
+      <c r="G141" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H141" s="39">
+        <v>3</v>
+      </c>
       <c r="I141" s="9"/>
       <c r="J141" s="11"/>
-      <c r="K141" s="48">
-        <v>45267</v>
+      <c r="K141" s="20" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="B142" s="20"/>
+      <c r="A142" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B142" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C142" s="13"/>
-      <c r="D142" s="39"/>
+      <c r="D142" s="39">
+        <v>4</v>
+      </c>
       <c r="E142" s="9"/>
       <c r="F142" s="20"/>
       <c r="G142" s="13" t="str">
@@ -6192,15 +6203,19 @@
       <c r="H142" s="39"/>
       <c r="I142" s="9"/>
       <c r="J142" s="11"/>
-      <c r="K142" s="20"/>
+      <c r="K142" s="20" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B143" s="20"/>
+      <c r="A143" s="40"/>
+      <c r="B143" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C143" s="13"/>
-      <c r="D143" s="39"/>
+      <c r="D143" s="39">
+        <v>1</v>
+      </c>
       <c r="E143" s="9"/>
       <c r="F143" s="20"/>
       <c r="G143" s="13" t="str">
@@ -6210,11 +6225,13 @@
       <c r="H143" s="39"/>
       <c r="I143" s="9"/>
       <c r="J143" s="11"/>
-      <c r="K143" s="20"/>
+      <c r="K143" s="48">
+        <v>45267</v>
+      </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="40">
-        <v>45323</v>
+      <c r="A144" s="47" t="s">
+        <v>108</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -6232,7 +6249,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -6250,7 +6267,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -6268,7 +6285,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -6286,7 +6303,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -6304,7 +6321,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -6322,7 +6339,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -6340,7 +6357,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -6358,7 +6375,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -6376,7 +6393,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -6394,7 +6411,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -6412,7 +6429,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -6430,7 +6447,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -6448,7 +6465,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -6466,7 +6483,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -6484,7 +6501,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -6502,7 +6519,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -6520,7 +6537,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -6538,7 +6555,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -6556,7 +6573,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -6571,6 +6588,42 @@
       <c r="I163" s="9"/>
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="40">
+        <v>45870</v>
+      </c>
+      <c r="B164" s="20"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="39"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H164" s="39"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="20"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="40">
+        <v>45901</v>
+      </c>
+      <c r="B165" s="20"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="39"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H165" s="39"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6681,13 +6734,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3"/>
+      <c r="E3"/>
+      <c r="F3">
+        <v>27</v>
+      </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.125</v>
+        <v>5.6000000000000015E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
